--- a/2019/Lost Creek/Lost Creek Report.xlsx
+++ b/2019/Lost Creek/Lost Creek Report.xlsx
@@ -1,33 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Yearly Reports\2018\Lost Creek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\2019\Lost Creek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D984466-75E9-4410-906A-46DD6E7EA594}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC0DC1C-71CF-462F-97E1-7D2A7E476B88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{8DE2BBAA-EA86-4618-A5D1-9D67D132A723}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{8DE2BBAA-EA86-4618-A5D1-9D67D132A723}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
     <sheet name="2018" sheetId="1" r:id="rId2"/>
-    <sheet name="Overall Stats" sheetId="3" r:id="rId3"/>
+    <sheet name="2019" sheetId="4" r:id="rId3"/>
+    <sheet name="Overall Stats" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="41">
   <si>
     <t>Lake/Pond</t>
   </si>
@@ -105,13 +112,58 @@
   </si>
   <si>
     <t>Splake</t>
+  </si>
+  <si>
+    <t>Month/Day</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>Fishing Report 2019 Lost Creek</t>
+  </si>
+  <si>
+    <t>6 Cutthroat 2 Rainbow 1 Tiger</t>
+  </si>
+  <si>
+    <t>3 Cutthroat 85 Rainbow 2 Tiger</t>
+  </si>
+  <si>
+    <t>1 Cutthroat 16 Rainbow 1 Tiger</t>
+  </si>
+  <si>
+    <t>19 Cutthroat 12 Rainbow</t>
+  </si>
+  <si>
+    <t>1 Chub 12 Cutthroat 2 Rainbow</t>
+  </si>
+  <si>
+    <t>10 Cutthroat 6 Rainbow 2 Tiger</t>
+  </si>
+  <si>
+    <t>10 Cutthroat 11 Rainbow</t>
+  </si>
+  <si>
+    <t>9 Cutthroat 9 Rainbow 1 Tiger</t>
+  </si>
+  <si>
+    <t>Hot</t>
+  </si>
+  <si>
+    <t>Chub</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +238,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -206,7 +265,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -241,12 +300,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -288,8 +356,8 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -302,6 +370,20 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -540,19 +622,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Overall Stats'!$A$2:$D$2</c:f>
+              <c:f>'Overall Stats'!$A$2:$E$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>Chub</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Cutthroat</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Rainbow</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Splake</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Tiger</c:v>
                 </c:pt>
               </c:strCache>
@@ -560,21 +645,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Overall Stats'!$A$3:$D$3</c:f>
+              <c:f>'Overall Stats'!$A$3:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1038,21 +1126,67 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Overall Stats'!$A$5:$D$5</c:f>
+              <c:f>'Overall Stats'!$A$5:$E$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>Chub</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Cutthroat</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Rainbow</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Splake</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Tiger</c:v>
                 </c:pt>
               </c:strCache>
@@ -1060,21 +1194,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Overall Stats'!$A$6:$D$6</c:f>
+              <c:f>'Overall Stats'!$A$6:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>43.39622641509434</c:v>
+                  <c:v>0.36496350364963503</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.943396226415096</c:v>
+                  <c:v>33.941605839416056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8867924528301887</c:v>
+                  <c:v>62.043795620437962</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.7735849056603774</c:v>
+                  <c:v>0.36496350364963503</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2846715328467155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2813,8 +2950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C323EE9B-AB86-4873-AC4E-09D7B8B4629E}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3044,61 +3181,396 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F732B40A-C676-4E35-BDB2-7C35D38C3BAA}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEEA264E-C9D6-49AF-9A8A-01C0EA30771C}">
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="M2" s="25"/>
+    </row>
+    <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>4</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7">
+        <v>9</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>70</v>
+      </c>
+      <c r="J4" s="7">
+        <v>143</v>
+      </c>
+      <c r="K4" s="7">
+        <v>7</v>
+      </c>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7">
+        <v>90</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7">
+        <v>25</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7">
+        <v>18</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7">
+        <v>25</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="15">
+        <f>SUM(H4/$F12*100)</f>
+        <v>0.45248868778280549</v>
+      </c>
+      <c r="I7" s="15">
+        <f t="shared" ref="I7:K7" si="0">SUM(I4/$F12*100)</f>
+        <v>31.674208144796378</v>
+      </c>
+      <c r="J7" s="15">
+        <f t="shared" si="0"/>
+        <v>64.705882352941174</v>
+      </c>
+      <c r="K7" s="15">
+        <f t="shared" si="0"/>
+        <v>3.1674208144796379</v>
+      </c>
+      <c r="M7" s="15"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7">
+        <v>22</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7">
+        <v>15</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7">
+        <v>3</v>
+      </c>
+      <c r="F9" s="7">
+        <v>18</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7">
+        <v>21</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7">
+        <v>24</v>
+      </c>
+      <c r="F11" s="7">
+        <v>19</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="14">
+        <f>SUM(F4:F11)</f>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="18">
+        <f>AVERAGE(F4:F11)</f>
+        <v>27.625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H5:K5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F732B40A-C676-4E35-BDB2-7C35D38C3BAA}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <f>SUM('2017'!E4+'2018'!F4)</f>
-        <v>23</v>
+        <f>SUM('2019'!H4)</f>
+        <v>1</v>
       </c>
       <c r="B3" s="7">
-        <f>SUM('2018'!G4)</f>
-        <v>27</v>
+        <f>SUM('2017'!E4+'2018'!F4+'2019'!I4)</f>
+        <v>93</v>
       </c>
       <c r="C3" s="7">
+        <f>SUM('2018'!G4+'2019'!J4)</f>
+        <v>170</v>
+      </c>
+      <c r="D3" s="7">
         <f>SUM('2018'!H4)</f>
         <v>1</v>
       </c>
-      <c r="D3" s="7">
-        <f>SUM('2018'!I4)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="7">
+        <f>SUM('2018'!I4+'2019'!K4)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
         <v>19</v>
       </c>
@@ -3106,71 +3578,78 @@
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
     </row>
-    <row r="5" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <f>SUM(A3/$B$8*100)</f>
-        <v>43.39622641509434</v>
+        <v>0.36496350364963503</v>
       </c>
       <c r="B6" s="15">
         <f>SUM(B3/$B$8*100)</f>
-        <v>50.943396226415096</v>
+        <v>33.941605839416056</v>
       </c>
       <c r="C6" s="15">
-        <f t="shared" ref="C6:D6" si="0">SUM(C3/$B$8*100)</f>
-        <v>1.8867924528301887</v>
+        <f>SUM(C3/$B$8*100)</f>
+        <v>62.043795620437962</v>
       </c>
       <c r="D6" s="15">
-        <f t="shared" si="0"/>
-        <v>3.7735849056603774</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <f>SUM(D3/$B$8*100)</f>
+        <v>0.36496350364963503</v>
+      </c>
+      <c r="E6" s="15">
+        <f>SUM(E3/$B$8*100)</f>
+        <v>3.2846715328467155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="8">
-        <f>SUM('2017'!C5+'2018'!D9)</f>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <f>SUM('2017'!C5+'2018'!D9+'2019'!F12)</f>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="8">
-        <f>SUM('2017'!C6+'2018'!D10)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <f>SUM('2017'!C6+'2018'!D10+'2019'!F13)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="9">
         <f>SUM(B8/B9)</f>
-        <v>8.8333333333333339</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>19.571428571428573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>24</v>
+      <c r="B11" s="29" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/2019/Lost Creek/Lost Creek Report.xlsx
+++ b/2019/Lost Creek/Lost Creek Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\2019\Lost Creek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC0DC1C-71CF-462F-97E1-7D2A7E476B88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC3DCBA-23B3-48F6-9841-C5E67CA3AD67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{8DE2BBAA-EA86-4618-A5D1-9D67D132A723}"/>
+    <workbookView xWindow="5115" yWindow="1410" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{8DE2BBAA-EA86-4618-A5D1-9D67D132A723}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
@@ -359,18 +359,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -384,6 +372,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1168,6 +1168,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-4125-4358-8522-755C841699D7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2855,12 +2860,12 @@
       <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
@@ -2898,12 +2903,12 @@
         <f>SUM(C4)</f>
         <v>1</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -2977,20 +2982,20 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -3056,12 +3061,12 @@
       <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -3184,7 +3189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEEA264E-C9D6-49AF-9A8A-01C0EA30771C}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -3213,25 +3218,25 @@
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="M2" s="25"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="M2" s="21"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -3264,7 +3269,7 @@
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7">
@@ -3294,7 +3299,7 @@
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="7">
@@ -3309,16 +3314,16 @@
       <c r="G5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="7">
@@ -3348,7 +3353,7 @@
       <c r="M6" s="7"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="7"/>
@@ -3382,7 +3387,7 @@
       <c r="M7" s="15"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="7"/>
@@ -3402,7 +3407,7 @@
       <c r="M8" s="7"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="7"/>
@@ -3422,7 +3427,7 @@
       <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="7"/>
@@ -3442,7 +3447,7 @@
       <c r="M10" s="7"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
@@ -3491,7 +3496,7 @@
       <c r="A15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="22" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3523,13 +3528,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -3571,12 +3576,12 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -3591,7 +3596,7 @@
       <c r="D5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="23" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3648,7 +3653,7 @@
       <c r="A11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="25" t="s">
         <v>39</v>
       </c>
     </row>
